--- a/final_data_pipeline/output/311942longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311942longform_elec_options_nowhp.xlsx
@@ -546,7 +546,7 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -561,10 +561,10 @@
         <v>815850.1128033118</v>
       </c>
       <c r="N2">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="O2">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="P2">
         <v>101.981264100414</v>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -614,10 +614,10 @@
         <v>292521.2512590724</v>
       </c>
       <c r="N3">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="O3">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="P3">
         <v>36.56515640738405</v>
@@ -652,7 +652,7 @@
         <v>30</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -667,10 +667,10 @@
         <v>817506.3306630016</v>
       </c>
       <c r="N4">
-        <v>1.741590909090909</v>
+        <v>1.894871325212932</v>
       </c>
       <c r="O4">
-        <v>1.89075</v>
+        <v>2.075424331741031</v>
       </c>
       <c r="P4">
         <v>102.1882913328752</v>
@@ -705,7 +705,7 @@
         <v>30</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -720,10 +720,10 @@
         <v>707347.3345320016</v>
       </c>
       <c r="N5">
-        <v>1.741590909090909</v>
+        <v>1.798225615362447</v>
       </c>
       <c r="O5">
-        <v>1.89075</v>
+        <v>1.958604378795604</v>
       </c>
       <c r="P5">
         <v>88.41841681650021</v>
@@ -864,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -879,10 +879,10 @@
         <v>1476238.691882631</v>
       </c>
       <c r="N8">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="O8">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="P8">
         <v>184.5298364853289</v>
@@ -917,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -932,10 +932,10 @@
         <v>675347.0332959928</v>
       </c>
       <c r="N9">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O9">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P9">
         <v>84.4183791619991</v>
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -985,10 +985,10 @@
         <v>604737.3127865273</v>
       </c>
       <c r="N10">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="O10">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="P10">
         <v>75.59216409831592</v>
